--- a/excel/MooneyRivlin.xlsx
+++ b/excel/MooneyRivlin.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Buquet\Documents\ENSTAB\Semestre_5\5_1_Elastomeres\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="17715" windowHeight="13110"/>
   </bookViews>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,12 +91,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -270,6 +278,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B995-4214-B5D3-D707CDD24B02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -464,7 +477,7 @@
                   <c:v>1.328812837600708</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3893203735351562</c:v>
+                  <c:v>1.3893203735351563</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.4488525390625</c:v>
@@ -524,7 +537,7 @@
                   <c:v>2.4472064971923828</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5008926391601562</c:v>
+                  <c:v>2.5008926391601563</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2.5544981956481934</c:v>
@@ -545,6 +558,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B995-4214-B5D3-D707CDD24B02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -820,6 +838,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B995-4214-B5D3-D707CDD24B02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -927,6 +950,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B995-4214-B5D3-D707CDD24B02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1202,6 +1230,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B995-4214-B5D3-D707CDD24B02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1477,6 +1510,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B995-4214-B5D3-D707CDD24B02}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1523,13 +1561,17 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1616,7 +1658,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1649,9 +1691,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1684,6 +1743,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2490,7 +2566,7 @@
         <v>1.5750000476837158</v>
       </c>
       <c r="D17" s="3">
-        <v>1.3893203735351562</v>
+        <v>1.3893203735351563</v>
       </c>
       <c r="E17" s="5">
         <v>1.5750000476837158</v>
@@ -3086,7 +3162,7 @@
         <v>3.6749999523162842</v>
       </c>
       <c r="D37" s="3">
-        <v>2.5008926391601562</v>
+        <v>2.5008926391601563</v>
       </c>
       <c r="E37" s="5">
         <v>3.6749999523162842</v>
